--- a/medicine/Mort/Décès_en_1940/Décès_en_1940.xlsx
+++ b/medicine/Mort/Décès_en_1940/Décès_en_1940.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1940</t>
+          <t>Décès_en_1940</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1940</t>
+          <t>Décès_en_1940</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,17 +540,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Louis Ferdinand Antoni, peintre et sculpteur français (° 1872).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Louis Ferdinand Antoni, peintre et sculpteur français (° 1872).
 Emmanuel Barcet, peintre, dessinateur, aquafortiste, affichiste et humoriste français (° 1870).
 Domingo Carulla, footballeur espagnol (° 1903).
 Charles Duvent, peintre français (° 24 juin 1867).
 Léon Pierre Félix, peintre français (° 17 août 1869).
 Ettore Forti, peintre italien (° 1850).
 Cécile Hartog, compositrice et pianiste anglaise (° 1857).
-Louis Vallet, aquarelliste et illustrateur français (° 26 février 1856).
-Janvier
-2 janvier : Albert Richter, coureur cycliste allemand (° 14 octobre 1912).
+Louis Vallet, aquarelliste et illustrateur français (° 26 février 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Albert Richter, coureur cycliste allemand (° 14 octobre 1912).
 4 janvier : René Hérisson, poète et peintre animalier français (° 24 mai 1857).
 5 janvier : Richard Roundell, homme politique britannique (° 4 novembre 1872).
 9 janvier : Paolo Baratta, peintre italien (° 14 août 1874).
@@ -554,9 +605,43 @@
 26 janvier : Gaston Larée, peintre et décorateur français (° 6 décembre 1867).
 27 janvier : Mathurin Janssaud, peintre français (° 29 mars 1857).
 28 janvier : Mirsäyet Soltanğäliev, bolchevik russe puis soviétique (° 13 juillet 1892).
-30 janvier : Justí Guitart i Vilardebó, évêque d'Urgell et coprince d'Andorre (° 16 décembre 1875).
-Février
-4 février : Heinrich Böhler, industriel, collectionneur d'œuvres d'art, peintre et photographe austro-suisse (° 1er août 1881).
+30 janvier : Justí Guitart i Vilardebó, évêque d'Urgell et coprince d'Andorre (° 16 décembre 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Heinrich Böhler, industriel, collectionneur d'œuvres d'art, peintre et photographe austro-suisse (° 1er août 1881).
 8 février : Paul Wattson, prêtre épiscopalien américain converti au catholicisme (° 16 janvier 1863).
 11 février :
 John Buchan, gouverneur général du Canada (° 26 août 1875).
@@ -570,9 +655,43 @@
 29 février :
 Edward Frederic Benson, écrivain britannique (° 24 juillet 1867).
 Josef Swickard, acteur germano-américain (° 26 juin 1866).
-? : février : Nikolaï Iejov, policier et homme politique russe puis soviétique (° 19 avril 1895).
-Mars
-3 mars : Joseph Ovide Brouillard, homme politique fédéral provenant du Québec (° 17 janvier 1859).
+? : février : Nikolaï Iejov, policier et homme politique russe puis soviétique (° 19 avril 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Joseph Ovide Brouillard, homme politique fédéral provenant du Québec (° 17 janvier 1859).
 4 mars : Gao Lingwei, homme politique chinois (° 12 septembre 1870).
 9 mars : Morin-Jean, archéologue, peintre, graveur et illustrateur français (° 9 mai 1877).
 10 mars : Mikhaïl Boulgakov, écrivain russe (° 15 mai 1891).
@@ -585,9 +704,43 @@
 27 mars :
 Paulin Bertrand, peintre et sculpteur français (° 4 février 1852).
 Michael Savage, premier ministre de Nouvelle-Zélande (° 23 mars 1872).
-31 mars : Carlo Bugatti, décorateur Art nouveau (° 16 février 1856).
-Avril
-6 avril : Andrés Isasi, compositeur et pianiste basque espagnol (° 28 octobre 1890).
+31 mars : Carlo Bugatti, décorateur Art nouveau (° 16 février 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6 avril : Andrés Isasi, compositeur et pianiste basque espagnol (° 28 octobre 1890).
 7 avril : William Faversham, acteur, metteur en scène et producteur de théâtre anglais (° 12 février 1868).
 9 avril : Jean Verdier, cardinal français, archevêque de Paris (° 19 février 1864).
 15 avril : Ethel Brilliana Tweedie, écrivain, photographe, peintre, aquarelliste et illustratrice britannique  (° 1er janvier 1862).
@@ -598,9 +751,43 @@
 23 avril : Marie Joseph Butler, religieuse irlandaise (° 22 juillet 1860).
 24 avril : Fanny Brate, peintre suédoise (° 26 février 1862).
 27 avril : Joaquim Mir, peintre espagnol (° 6 janvier 1873).
-28 avril : Beatrice Triangi, aristocrate viennoise (° 6 mai 1868).
-Mai
-1er mai : Maurice Le Scouëzec, peintre et graveur français (° 1er octobre 1881).
+28 avril : Beatrice Triangi, aristocrate viennoise (° 6 mai 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Maurice Le Scouëzec, peintre et graveur français (° 1er octobre 1881).
 2 mai : James Bowman, politicien ontarien.
 6 mai : Ernest Gillet, compositeur et violoncelliste français (° 13 septembre 1856).
 8 mai : Cesare Pascarella, poète d'expression en dialecte italien et peintre (° 28 avril 1858).
@@ -613,9 +800,43 @@
 22 mai :
 Joseph-Guillaume-Laurent Forbes, archevêque d'Ottawa (° 10 août 1865).
 Julien Vervaecke, coureur cycliste belge (° 3 novembre 1899).
-28 mai : Charles Malfray, sculpteur et peintre français (° 19 juillet 1887).
-Juin
-2 juin :
+28 mai : Charles Malfray, sculpteur et peintre français (° 19 juillet 1887).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin :
 Platon Kerjentsev, Homme d'État, journaliste, économiste et écrivain russe puis soviétique (° 4 août 1881).
 Ernesto Laroche, peintre, aquafortiste et critique d'art uruguayen (° 8 mars 1879).
 7 juin : Charles N'Tchoréré, militaire français d'origine gabonaise (° 15 novembre 1896).
@@ -643,9 +864,43 @@
 28 juin : Italo Balbo, maréchal italien (° 6 juin 1896).
 29 juin :
 Paul Klee, peintre allemand (° 18 décembre 1879).
-Nicolas Soukhanov, homme politique et économiste russe puis soviétique (° 9 décembre 1882).
-Juillet
-1er juillet : Madeleine Lavanture, peintre française (° 8 février 1913).
+Nicolas Soukhanov, homme politique et économiste russe puis soviétique (° 9 décembre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Madeleine Lavanture, peintre française (° 8 février 1913).
 4 juillet : Józef Pankiewicz, peintre et enseignant polonais (° 29 novembre 1866).
 6 juillet : Raphy Dallèves, peintre suisse de l’École de Savièse (° 26 janvier 1878).
 8 juillet : Granville Bates, acteur américain (° 7 janvier 1882).
@@ -656,17 +911,85 @@
 Robert Wadlow,  homme américain le plus grand du monde (° 22 février 1918).
 28 juillet : Étienne Mondineu, peintre français (° 27 janvier 1872).
 30 juillet : Frank Carrel,  éditeur, homme d'affaires et homme politique canadien (° 7 septembre 1870).
-31 juillet : Elfriede Lohse-Wächtler, peintre allemande (° 4 décembre 1899).
-Août
-3 août : Frederic C. Howe, homme politique américain (° 21 novembre 1867).
+31 juillet : Elfriede Lohse-Wächtler, peintre allemande (° 4 décembre 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3 août : Frederic C. Howe, homme politique américain (° 21 novembre 1867).
 4 août : Vladimir Jabotinsky, homme politique sioniste (° 18 octobre 1880).
 7 août : Eugenie Schwarzwald, pédagogue, écrivaine, philosophe autrichienne (° 4 juillet 1872).
 16 août : Henri Desgrange, coureur cycliste, dirigeant sportif et journaliste français (° 31 janvier 1865).
 21 août : Léon Trotsky, homme politique russe puis soviétique (° 7 novembre 1879).
 27 août : Israël Leizer Karp, premier fusillé au camp de Souge (° 20 janvier 1886).
-29 août : Arthur De Greef, pianiste et compositeur belge (° 10 octobre 1862).
-Septembre
-1er septembre : André Eugène Costilhes, peintre et décorateur français (° 8 avril 1865).
+29 août : Arthur De Greef, pianiste et compositeur belge (° 10 octobre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : André Eugène Costilhes, peintre et décorateur français (° 8 avril 1865).
 2 septembre :
 Maude Abbott, médecin et féministe (° 1869).
 Maximilian von Hoen, historien militaire autrichien (° 17 février 1867).
@@ -682,16 +1005,84 @@
 23 septembre : Rhené-Baton, chef d'orchestre et compositeur français (° 5 septembre 1879).
 26 septembre : Walter Benjamin, philosophe et critique littéraire allemand (° 15 juillet 1892).
 30 septembre : Walter Kollo, compositeur allemand (° 28 janvier 1878).
-? septembre : Robert Hénard, écrivain, peintre et illustrateur français (° 25 janvier 1871).
-Octobre
-1er octobre : Armand Hubert, homme politique belge (° 15 août 1857).
+? septembre : Robert Hénard, écrivain, peintre et illustrateur français (° 25 janvier 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Armand Hubert, homme politique belge (° 15 août 1857).
 11 octobre : Vito Volterra, mathématicien et physicien italien (° 3 mai 1860).
 12 octobre : Hasegawa Toshiyuki, peintre japonais (° 9 juillet 1891).
 17 octobre : Henri Jamet, peintre français (° 25 septembre 1858).
 22 octobre : Fernand Sabatté, peintre français (° 14 mai 1874).
-26 octobre : Olga Boznańska, peintre polonaise (° 15 avril 1865).
-Novembre
-1er novembre : Maurice Leloir, peintre aquarelliste, dessinateur, graveur, écrivain et collectionneur français (° 1er novembre 1853).
+26 octobre : Olga Boznańska, peintre polonaise (° 15 avril 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Maurice Leloir, peintre aquarelliste, dessinateur, graveur, écrivain et collectionneur français (° 1er novembre 1853).
 2 novembre : Alexis Douce de la Salle, peintre français (° 27 décembre 1869).
 4 novembre :
 Manuel Azaña y Díaz, homme politique espagnol (° 10 janvier 1880).
@@ -702,9 +1093,43 @@
 19 novembre ou 22 novembre : Wacław Berent, écrivain, romancier et traducteur polonais (° 28 septembre 1873).
 20 novembre  : Robert Lane, footballeur international canadien (° 15 janvier 1882).
 25 novembre : Gaspare Bona, pilote automobile sur circuit, aviateur, compositeur et directeur de société italien (° 18 décembre 1895).
-27 novembre : Henri Guillaumet, aviateur français abattu par la chasse italienne (° 29 mai 1902).
-Décembre
-5 décembre : Wilfred Lucas, acteur, réalisateur et scénariste  américain d'origine canadienne (° 30 janvier 1871).
+27 novembre : Henri Guillaumet, aviateur français abattu par la chasse italienne (° 29 mai 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1940</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1940</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 décembre : Wilfred Lucas, acteur, réalisateur et scénariste  américain d'origine canadienne (° 30 janvier 1871).
 7 décembre : Arthur Ahnger, skipper finlandais, médaillé de bronze aux jeux olympiques de 1912 (° 28 février 1886).
 11 décembre : Fernand Cocq, homme politique belge (° 5 juillet 1861).
 12 décembre : Hans Wagner-Schönkirch, compositeur, chef de chœur, pédagogue et théoricien autrichien (° 19 décembre 1872).
